--- a/연습1.xlsx
+++ b/연습1.xlsx
@@ -14,24 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
-    <t>용량 표준편차</t>
+    <t>표준편차</t>
   </si>
   <si>
-    <t>가격 표준편차</t>
+    <t>알파 퍼센트(공정성)</t>
   </si>
   <si>
-    <t>우선선발</t>
+    <t>효율성</t>
   </si>
   <si>
-    <t>일반선발A</t>
+    <t>Jain Index</t>
   </si>
   <si>
-    <t>일반선발B</t>
+    <t>예정</t>
   </si>
   <si>
-    <t>총 평균</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,176 +406,644 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>0.3390908376611423</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0.7031914636820111</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24</v>
-      </c>
-      <c r="J2" t="n">
-        <v>27</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>0.6920353982300885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3379427655656578</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7059702812253896</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6933628318584071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3368108095482092</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.707687239244305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6827433628318584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3360102856848423</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7127436529252646</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6823008849557523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3348983895981701</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.716592113426085</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6730088495575222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3340949085244246</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7222780620369006</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6716814159292035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3326547511124962</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7279053753385289</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6623893805309734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3311698957521898</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7339823145170519</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6526548672566371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3305358178846965</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7422626195391758</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6411504424778761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3293160441450951</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7510964121908561</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6380530973451327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>0.3391985893059805</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>0.7028960701329288</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15</v>
-      </c>
-      <c r="G15" t="n">
-        <v>18</v>
-      </c>
-      <c r="H15" t="n">
-        <v>21</v>
-      </c>
-      <c r="I15" t="n">
-        <v>24</v>
-      </c>
-      <c r="J15" t="n">
-        <v>27</v>
-      </c>
-      <c r="K15" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.6929203539823009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3381056876188315</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7048898217915985</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6889380530973451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.337155710858582</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7091166834847857</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6827433628318584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3358804304818244</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7124953163040597</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6805309734513274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3348344778086855</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7166857865342907</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6699115044247788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3334902178512708</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7209291187813982</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6597345132743363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3327421728688709</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7267848805707776</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6584070796460177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3317352499909297</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7343143895237014</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6557522123893805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3301023172821161</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7419677832645397</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6393805309734514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3292779907591007</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7506489665119785</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6340707964601769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>0.3401470043535094</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>0.7063079563593385</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
-      </c>
-      <c r="F28" t="n">
-        <v>15</v>
-      </c>
-      <c r="G28" t="n">
-        <v>18</v>
-      </c>
-      <c r="H28" t="n">
-        <v>21</v>
-      </c>
-      <c r="I28" t="n">
-        <v>24</v>
-      </c>
-      <c r="J28" t="n">
-        <v>27</v>
-      </c>
-      <c r="K28" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.6907079646017699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3390705133790152</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7073503593877372</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6982300884955752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3375674729793069</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7110085262397533</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6907079646017699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3369912720131148</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.714695662590805</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6867256637168142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3359163289777288</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7189205640814514</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6787610619469027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3346816922489725</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7239805978240509</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6690265486725664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3335601518698337</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7286176191326459</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6619469026548672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3326278867256839</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7360316572199175</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6464601769911504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3316260999173478</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7441211861496091</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6407079646017699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3295566436349775</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7548854427180964</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6451327433628319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
       <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>0.3430430302182773</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>0.7123584490415587</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
-      </c>
-      <c r="F41" t="n">
-        <v>15</v>
-      </c>
-      <c r="G41" t="n">
-        <v>18</v>
-      </c>
-      <c r="H41" t="n">
-        <v>21</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>27</v>
-      </c>
-      <c r="K41" t="n">
-        <v>30</v>
+        <v>0.7132743362831858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3415908564933628</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7158217639284213</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7115044247787611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3413984397296368</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7199247161423302</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7057522123893806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3404816446930666</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7245804950094186</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3388954249633833</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7264722602525093</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6986725663716814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3376882346642658</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7318843596990134</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6849557522123894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3362820282493192</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7363483432698128</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6734513274336283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3348109972583823</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7438627370055013</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6734513274336283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3344758781407645</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7527336069329859</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6730088495575222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3333230692201059</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7602583877857674</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6685840707964602</v>
       </c>
     </row>
   </sheetData>
